--- a/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
+++ b/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rearden\Desktop\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\Applied_Optimization_Models\Lab_Limenitiz\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD562F-BAD6-43BD-9B6E-A2CEEA785ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1F9C6-047F-46E6-AE39-5DC50DED1E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="710" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="710" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Условие" sheetId="8" r:id="rId1"/>
@@ -249,13 +249,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -641,6 +634,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,10 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1843,30 +1836,30 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1946,17 +1939,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1972,17 +1965,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +1998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2054,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,26 +2068,26 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2174,17 +2167,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2200,17 +2193,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2291,27 +2284,27 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2391,17 +2384,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2417,17 +2410,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2473,7 +2466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2508,27 +2501,27 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2533,7 @@
       </c>
       <c r="G2" s="15">
         <f>D14</f>
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>14</v>
@@ -2549,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2557,7 @@
       </c>
       <c r="G3" s="20">
         <f>B9+C9</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -2573,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2582,7 @@
       </c>
       <c r="G4" s="17">
         <f>-D12</f>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -2598,7 +2591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2609,17 +2602,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2627,39 +2620,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <f>B9*B3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f>C9*C3</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
         <f>SUM(B12:C12)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>0</v>
@@ -2668,21 +2661,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <f>B9*B4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f>C9*C4</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" ref="D13:D14" si="0">SUM(B13:C13)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>0</v>
@@ -2691,21 +2684,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <f>B9*B5</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>C9*C5</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2722,31 +2715,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2D4166-D978-4FC8-8187-3D006D90B72B}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2790,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2808,17 +2801,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -2834,17 +2827,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2867,7 +2860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2925,29 +2918,29 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2986,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3028,17 +3021,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -3054,17 +3047,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3110,7 +3103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3145,27 +3138,27 @@
       <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3186,7 +3179,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3203,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3249,32 +3242,32 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="36"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="36">
+      <c r="F7" s="40">
         <f>PRODUCT(G2:G3)*(-G4)</f>
         <v>4370625</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3282,7 +3275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>900</v>
       </c>
@@ -3290,17 +3283,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3346,7 +3339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3383,27 +3376,27 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3414,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3442,7 +3435,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3463,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3474,17 +3467,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3492,25 +3485,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="42">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="35">
         <v>1199.8870694522871</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3515,7 @@
         <f>C9*C3</f>
         <v>0</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <f>SUM(B12:C12)</f>
         <v>11.998870694522871</v>
       </c>
@@ -3533,7 +3526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3538,7 @@
         <f>C9*C4</f>
         <v>0</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="34">
         <f t="shared" ref="D13:D14" si="0">SUM(B13:C13)</f>
         <v>23.997741389045743</v>
       </c>
@@ -3556,7 +3549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3573,28 +3566,28 @@
         <v>299.97176736307176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="40">
         <f>(G4-I4)^2+(G3-I3)^2+(G2-I2)^2</f>
         <v>143.98644833427443</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -3611,33 +3604,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1064A8-C54D-4C47-8B6A-EB401B70F446}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
@@ -3648,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3665,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3728,7 +3721,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3748,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="G6" t="s">
@@ -3775,11 +3768,11 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="36"/>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +3790,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +3808,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -3833,7 +3826,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K10">
         <v>8</v>
       </c>
@@ -3845,15 +3838,15 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="K11">
         <v>9</v>
       </c>
@@ -3865,7 +3858,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +3913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>

--- a/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
+++ b/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\Applied_Optimization_Models\Lab_Limenitiz\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studies\SUAI_5sem\Applied_Optimization_Models\Lab_Limenitiz\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1F9C6-047F-46E6-AE39-5DC50DED1E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0CE29-AB0E-4BA6-BBCF-D291C00D2C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="710" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22155" yWindow="6435" windowWidth="15930" windowHeight="13710" tabRatio="710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Условие" sheetId="8" r:id="rId1"/>
@@ -249,6 +249,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1839,27 +1846,27 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1939,17 +1946,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1982,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +2005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2068,26 +2075,26 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2167,17 +2174,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2193,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2210,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2284,27 +2291,27 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2384,17 +2391,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2420,7 +2427,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2497,31 +2504,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFADC35-3578-4CEC-8679-8CADFE201231}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2602,17 +2609,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2638,7 +2645,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2661,7 +2668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2715,31 +2722,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2D4166-D978-4FC8-8187-3D006D90B72B}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2761,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2801,17 +2808,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -2827,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2837,7 +2844,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2918,20 +2925,20 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -2940,7 +2947,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3021,17 +3028,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3064,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3138,27 +3145,27 @@
       <selection activeCell="K23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3203,7 +3210,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3249,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="18"/>
@@ -3253,7 +3260,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3274,7 @@
       <c r="H7" s="40"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>900</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3376,27 +3383,27 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3456,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3467,17 +3474,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="35">
         <v>1199.8870694522871</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3503,7 +3510,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3566,12 +3573,12 @@
         <v>299.97176736307176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3586,7 @@
       <c r="C16" s="42"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f>(G4-I4)^2+(G3-I3)^2+(G2-I2)^2</f>
         <v>143.98644833427443</v>
@@ -3587,7 +3594,7 @@
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -3608,24 +3615,24 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -3641,7 +3648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3755,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="G6" t="s">
@@ -3768,7 +3775,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
@@ -3790,7 +3797,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>8</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3890,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>

--- a/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
+++ b/Applied_Optimization_Models/Lab_Limenitiz/lab3/lab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studies\SUAI_5sem\Applied_Optimization_Models\Lab_Limenitiz\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SUAI\Applied_Optimization_Models\Lab_Limenitiz\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0CE29-AB0E-4BA6-BBCF-D291C00D2C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9975141-D0DB-4AE7-A1C8-4D3F013209B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22155" yWindow="6435" windowWidth="15930" windowHeight="13710" tabRatio="710" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="710" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Условие" sheetId="8" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -111,6 +112,7 @@
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
@@ -125,6 +127,7 @@
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
@@ -139,6 +142,7 @@
     <definedName name="solver_opt" localSheetId="5" hidden="1">многокритериальной!$G$2</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">Нэш!$F$7</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">расстояние!$A$17</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Условие!$B$20</definedName>
     <definedName name="solver_opt" localSheetId="8" hidden="1">'Эффективная кривая'!$G$2</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -229,6 +233,7 @@
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
@@ -236,6 +241,7 @@
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
@@ -243,19 +249,13 @@
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1846,27 +1846,27 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1946,17 +1946,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2061,7 +2061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2075,26 +2075,26 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2174,17 +2174,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2291,27 +2291,27 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2391,17 +2391,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2504,31 +2504,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFADC35-3578-4CEC-8679-8CADFE201231}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2609,17 +2609,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2726,27 +2726,27 @@
       <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2808,17 +2808,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2925,20 +2925,20 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3028,17 +3028,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>1200</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3141,31 +3141,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E024B4-4FC8-4BB2-A825-9C8C85516AC8}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:L23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="G2" s="30">
         <f>D14</f>
-        <v>277.5</v>
+        <v>300</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>15</v>
@@ -3186,7 +3186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="G3" s="31">
         <f>B9+C9</f>
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -3210,7 +3210,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G4" s="27">
         <f>-D12</f>
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>15</v>
@@ -3234,7 +3234,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="E6" s="18"/>
@@ -3260,21 +3260,21 @@
       <c r="H6" s="38"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
       <c r="E7" s="18"/>
       <c r="F7" s="40">
-        <f>PRODUCT(G2:G3)*(-G4)</f>
-        <v>4370625</v>
+        <f>(G2-I2)*(G3-I3)*(G4-I4)</f>
+        <v>117450</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="41"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3282,15 +3282,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3300,21 +3300,21 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5">
         <f>B9*B3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5">
         <f>C9*C3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
         <f>SUM(B12:C12)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>0</v>
@@ -3323,17 +3323,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5">
         <f>B9*B4</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <f>C9*C4</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" ref="D13:D14" si="0">SUM(B13:C13)</f>
@@ -3346,21 +3346,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <f>B9*B5</f>
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="C14" s="5">
         <f>C9*C5</f>
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>277.5</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3383,27 +3383,27 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3474,17 +3474,17 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35">
         <v>1199.8870694522871</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3573,12 +3573,12 @@
         <v>299.97176736307176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>22</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="C16" s="42"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40">
         <f>(G4-I4)^2+(G3-I3)^2+(G2-I2)^2</f>
         <v>143.98644833427443</v>
@@ -3594,7 +3594,7 @@
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -3615,24 +3615,24 @@
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="G6" t="s">
@@ -3775,7 +3775,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>-7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K10">
         <v>8</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
